--- a/po_analysis_by_asin/B0CHSGZPNY_po_data.xlsx
+++ b/po_analysis_by_asin/B0CHSGZPNY_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,97 +452,177 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>75</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45334</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45341</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45355</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45362</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45390</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45397</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B13" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B23" t="n">
         <v>4</v>
       </c>
     </row>
@@ -557,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,33 +659,65 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>147</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B5" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B9" t="n">
         <v>88</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CHSGZPNY_po_data.xlsx
+++ b/po_analysis_by_asin/B0CHSGZPNY_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,33 +596,17 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45396.99999999999</v>
-      </c>
-      <c r="B22" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45403.99999999999</v>
-      </c>
-      <c r="B23" t="n">
         <v>4</v>
       </c>
     </row>
@@ -637,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,17 +691,9 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45412.99999999999</v>
-      </c>
-      <c r="B9" t="n">
         <v>88</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CHSGZPNY_po_data.xlsx
+++ b/po_analysis_by_asin/B0CHSGZPNY_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -637,7 +638,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -695,6 +696,439 @@
       </c>
       <c r="B8" t="n">
         <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>60</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.558279708567823</v>
+      </c>
+      <c r="D2" t="n">
+        <v>112.0076268545824</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>57</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.596379653283505</v>
+      </c>
+      <c r="D3" t="n">
+        <v>109.0268725645244</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>55</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.207175380011305</v>
+      </c>
+      <c r="D4" t="n">
+        <v>105.0965991999008</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>54</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.897186991850533</v>
+      </c>
+      <c r="D5" t="n">
+        <v>106.8651288006023</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>52</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.671874767809168</v>
+      </c>
+      <c r="D6" t="n">
+        <v>102.9479751030712</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.134522490339942</v>
+      </c>
+      <c r="D7" t="n">
+        <v>99.39734584205654</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>49</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-7.093632256712498</v>
+      </c>
+      <c r="D8" t="n">
+        <v>99.85199125738538</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>48</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-6.362434797018753</v>
+      </c>
+      <c r="D9" t="n">
+        <v>101.4309804226576</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>47</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5.434581302484518</v>
+      </c>
+      <c r="D10" t="n">
+        <v>101.8323660400138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>45</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-4.306309085361154</v>
+      </c>
+      <c r="D11" t="n">
+        <v>98.58005129001768</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>42</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-9.891658587326662</v>
+      </c>
+      <c r="D12" t="n">
+        <v>90.89208041007365</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>40</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-13.54169095771115</v>
+      </c>
+      <c r="D13" t="n">
+        <v>88.75878274626047</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>39</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-15.42366885975015</v>
+      </c>
+      <c r="D14" t="n">
+        <v>91.07167847282194</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>38</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-15.47202824889044</v>
+      </c>
+      <c r="D15" t="n">
+        <v>88.12006151299231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>36</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-17.58150351437851</v>
+      </c>
+      <c r="D16" t="n">
+        <v>88.5082124314991</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>35</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-15.40606922167427</v>
+      </c>
+      <c r="D17" t="n">
+        <v>90.53304301192296</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>34</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-16.3900433209003</v>
+      </c>
+      <c r="D18" t="n">
+        <v>85.16234347367121</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>33</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-19.38518063669054</v>
+      </c>
+      <c r="D19" t="n">
+        <v>87.35430819617179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>24</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-32.37170632712959</v>
+      </c>
+      <c r="D20" t="n">
+        <v>75.77377585886271</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>23</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-27.63602673789943</v>
+      </c>
+      <c r="D21" t="n">
+        <v>73.49182855279184</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-29.85782300734045</v>
+      </c>
+      <c r="D22" t="n">
+        <v>67.85004559853311</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-30.97711386539762</v>
+      </c>
+      <c r="D23" t="n">
+        <v>67.48485735007301</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>19</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-35.78715961290863</v>
+      </c>
+      <c r="D24" t="n">
+        <v>71.60259577971645</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>18</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-34.05409393142838</v>
+      </c>
+      <c r="D25" t="n">
+        <v>67.88971457437428</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>16</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-34.8639759672021</v>
+      </c>
+      <c r="D26" t="n">
+        <v>67.8006844241072</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>15</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-39.26663849780242</v>
+      </c>
+      <c r="D27" t="n">
+        <v>65.76623733133474</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>14</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-40.69694557174985</v>
+      </c>
+      <c r="D28" t="n">
+        <v>59.79336848891928</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>13</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-43.02349905599796</v>
+      </c>
+      <c r="D29" t="n">
+        <v>61.18619836880307</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CHSGZPNY_po_data.xlsx
+++ b/po_analysis_by_asin/B0CHSGZPNY_po_data.xlsx
@@ -709,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,16 +728,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -746,12 +736,6 @@
       <c r="B2" t="n">
         <v>60</v>
       </c>
-      <c r="C2" t="n">
-        <v>5.558279708567823</v>
-      </c>
-      <c r="D2" t="n">
-        <v>112.0076268545824</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -760,12 +744,6 @@
       <c r="B3" t="n">
         <v>57</v>
       </c>
-      <c r="C3" t="n">
-        <v>2.596379653283505</v>
-      </c>
-      <c r="D3" t="n">
-        <v>109.0268725645244</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -774,12 +752,6 @@
       <c r="B4" t="n">
         <v>55</v>
       </c>
-      <c r="C4" t="n">
-        <v>3.207175380011305</v>
-      </c>
-      <c r="D4" t="n">
-        <v>105.0965991999008</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -788,12 +760,6 @@
       <c r="B5" t="n">
         <v>54</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.897186991850533</v>
-      </c>
-      <c r="D5" t="n">
-        <v>106.8651288006023</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -802,12 +768,6 @@
       <c r="B6" t="n">
         <v>52</v>
       </c>
-      <c r="C6" t="n">
-        <v>-1.671874767809168</v>
-      </c>
-      <c r="D6" t="n">
-        <v>102.9479751030712</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -816,12 +776,6 @@
       <c r="B7" t="n">
         <v>50</v>
       </c>
-      <c r="C7" t="n">
-        <v>-2.134522490339942</v>
-      </c>
-      <c r="D7" t="n">
-        <v>99.39734584205654</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,12 +784,6 @@
       <c r="B8" t="n">
         <v>49</v>
       </c>
-      <c r="C8" t="n">
-        <v>-7.093632256712498</v>
-      </c>
-      <c r="D8" t="n">
-        <v>99.85199125738538</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -844,12 +792,6 @@
       <c r="B9" t="n">
         <v>48</v>
       </c>
-      <c r="C9" t="n">
-        <v>-6.362434797018753</v>
-      </c>
-      <c r="D9" t="n">
-        <v>101.4309804226576</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -858,12 +800,6 @@
       <c r="B10" t="n">
         <v>47</v>
       </c>
-      <c r="C10" t="n">
-        <v>-5.434581302484518</v>
-      </c>
-      <c r="D10" t="n">
-        <v>101.8323660400138</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -872,12 +808,6 @@
       <c r="B11" t="n">
         <v>45</v>
       </c>
-      <c r="C11" t="n">
-        <v>-4.306309085361154</v>
-      </c>
-      <c r="D11" t="n">
-        <v>98.58005129001768</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -886,12 +816,6 @@
       <c r="B12" t="n">
         <v>42</v>
       </c>
-      <c r="C12" t="n">
-        <v>-9.891658587326662</v>
-      </c>
-      <c r="D12" t="n">
-        <v>90.89208041007365</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -900,12 +824,6 @@
       <c r="B13" t="n">
         <v>40</v>
       </c>
-      <c r="C13" t="n">
-        <v>-13.54169095771115</v>
-      </c>
-      <c r="D13" t="n">
-        <v>88.75878274626047</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -914,12 +832,6 @@
       <c r="B14" t="n">
         <v>39</v>
       </c>
-      <c r="C14" t="n">
-        <v>-15.42366885975015</v>
-      </c>
-      <c r="D14" t="n">
-        <v>91.07167847282194</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -928,12 +840,6 @@
       <c r="B15" t="n">
         <v>38</v>
       </c>
-      <c r="C15" t="n">
-        <v>-15.47202824889044</v>
-      </c>
-      <c r="D15" t="n">
-        <v>88.12006151299231</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -942,12 +848,6 @@
       <c r="B16" t="n">
         <v>36</v>
       </c>
-      <c r="C16" t="n">
-        <v>-17.58150351437851</v>
-      </c>
-      <c r="D16" t="n">
-        <v>88.5082124314991</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -956,12 +856,6 @@
       <c r="B17" t="n">
         <v>35</v>
       </c>
-      <c r="C17" t="n">
-        <v>-15.40606922167427</v>
-      </c>
-      <c r="D17" t="n">
-        <v>90.53304301192296</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -970,12 +864,6 @@
       <c r="B18" t="n">
         <v>34</v>
       </c>
-      <c r="C18" t="n">
-        <v>-16.3900433209003</v>
-      </c>
-      <c r="D18" t="n">
-        <v>85.16234347367121</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -984,12 +872,6 @@
       <c r="B19" t="n">
         <v>33</v>
       </c>
-      <c r="C19" t="n">
-        <v>-19.38518063669054</v>
-      </c>
-      <c r="D19" t="n">
-        <v>87.35430819617179</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -998,12 +880,6 @@
       <c r="B20" t="n">
         <v>24</v>
       </c>
-      <c r="C20" t="n">
-        <v>-32.37170632712959</v>
-      </c>
-      <c r="D20" t="n">
-        <v>75.77377585886271</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1012,12 +888,6 @@
       <c r="B21" t="n">
         <v>23</v>
       </c>
-      <c r="C21" t="n">
-        <v>-27.63602673789943</v>
-      </c>
-      <c r="D21" t="n">
-        <v>73.49182855279184</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1026,12 +896,6 @@
       <c r="B22" t="n">
         <v>21</v>
       </c>
-      <c r="C22" t="n">
-        <v>-29.85782300734045</v>
-      </c>
-      <c r="D22" t="n">
-        <v>67.85004559853311</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1040,12 +904,6 @@
       <c r="B23" t="n">
         <v>20</v>
       </c>
-      <c r="C23" t="n">
-        <v>-30.97711386539762</v>
-      </c>
-      <c r="D23" t="n">
-        <v>67.48485735007301</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1054,12 +912,6 @@
       <c r="B24" t="n">
         <v>19</v>
       </c>
-      <c r="C24" t="n">
-        <v>-35.78715961290863</v>
-      </c>
-      <c r="D24" t="n">
-        <v>71.60259577971645</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1068,12 +920,6 @@
       <c r="B25" t="n">
         <v>18</v>
       </c>
-      <c r="C25" t="n">
-        <v>-34.05409393142838</v>
-      </c>
-      <c r="D25" t="n">
-        <v>67.88971457437428</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1082,12 +928,6 @@
       <c r="B26" t="n">
         <v>16</v>
       </c>
-      <c r="C26" t="n">
-        <v>-34.8639759672021</v>
-      </c>
-      <c r="D26" t="n">
-        <v>67.8006844241072</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1096,12 +936,6 @@
       <c r="B27" t="n">
         <v>15</v>
       </c>
-      <c r="C27" t="n">
-        <v>-39.26663849780242</v>
-      </c>
-      <c r="D27" t="n">
-        <v>65.76623733133474</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1110,12 +944,6 @@
       <c r="B28" t="n">
         <v>14</v>
       </c>
-      <c r="C28" t="n">
-        <v>-40.69694557174985</v>
-      </c>
-      <c r="D28" t="n">
-        <v>59.79336848891928</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1123,12 +951,6 @@
       </c>
       <c r="B29" t="n">
         <v>13</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-43.02349905599796</v>
-      </c>
-      <c r="D29" t="n">
-        <v>61.18619836880307</v>
       </c>
     </row>
   </sheetData>
